--- a/data/model_comp.xlsx
+++ b/data/model_comp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mayukha/UBC Material and Labs/Capstone/capstone-project-aafc-crop-yield-project-capstone-team/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mehul Bhargava\capstone\capstone-project-aafc-crop-yield-project-capstone-team\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F8C54F-5B87-6242-8A71-7BDF87247182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6052EBA5-4072-45BE-958A-59DB43D27739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{BC56E1E9-29F5-FC44-9A0D-C6C832EAC295}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{BC56E1E9-29F5-FC44-9A0D-C6C832EAC295}"/>
   </bookViews>
   <sheets>
     <sheet name="RR" sheetId="6" r:id="rId1"/>
@@ -28,9 +28,9 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="28" r:id="rId8"/>
-    <pivotCache cacheId="26" r:id="rId9"/>
-    <pivotCache cacheId="27" r:id="rId10"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
+    <pivotCache cacheId="1" r:id="rId9"/>
+    <pivotCache cacheId="2" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -275,7 +275,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1524,7 +1524,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2950,7 +2950,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4199,7 +4199,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4816,6 +4816,9 @@
       <c:pivotFmt>
         <c:idx val="9"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -14386,7 +14389,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{251217D7-E511-C747-873A-A7BA49E746E7}" name="PivotTable3" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{251217D7-E511-C747-873A-A7BA49E746E7}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:C64" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -14984,7 +14987,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EE9566B6-56CD-384A-817B-78EA89A5F26D}" name="PivotTable2" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EE9566B6-56CD-384A-817B-78EA89A5F26D}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A1:C64" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -15595,7 +15598,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A278036C-E176-6E41-A332-EE37F0E92147}" name="PivotTable4" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A278036C-E176-6E41-A332-EE37F0E92147}" name="PivotTable4" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:C64" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -16194,7 +16197,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{65521E42-1972-1640-9CD6-A42E5146C51B}" name="PivotTable2" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{65521E42-1972-1640-9CD6-A42E5146C51B}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A1:C64" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -17106,13 +17109,13 @@
   </sheetPr>
   <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -17832,17 +17835,17 @@
   </sheetPr>
   <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -18566,11 +18569,11 @@
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -19294,21 +19297,21 @@
       <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="4.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="22.69921875" style="5" customWidth="1"/>
     <col min="3" max="3" width="19.5" style="5" customWidth="1"/>
     <col min="4" max="4" width="21" style="11" customWidth="1"/>
-    <col min="5" max="5" width="21.83203125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="23.83203125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="19.1640625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="21.796875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="23.796875" style="11" customWidth="1"/>
+    <col min="7" max="7" width="19.19921875" style="11" customWidth="1"/>
     <col min="8" max="8" width="34" style="11" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" style="11" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="5"/>
+    <col min="9" max="9" width="20.296875" style="11" customWidth="1"/>
+    <col min="10" max="16384" width="8.796875" style="5"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" ht="19">
+    <row r="3" spans="2:9" ht="18">
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
@@ -19320,7 +19323,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="2:9" ht="16">
+    <row r="4" spans="2:9" ht="15.6">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
@@ -19330,7 +19333,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="2:9" ht="19">
+    <row r="5" spans="2:9" ht="18">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -19356,7 +19359,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="16">
+    <row r="6" spans="2:9" ht="15.6">
       <c r="B6" s="6">
         <v>748</v>
       </c>
@@ -19382,7 +19385,7 @@
         <v>90.11</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="16">
+    <row r="7" spans="2:9" ht="15.6">
       <c r="B7" s="6">
         <v>826</v>
       </c>
@@ -19408,7 +19411,7 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="16">
+    <row r="8" spans="2:9" ht="15.6">
       <c r="B8" s="6">
         <v>752</v>
       </c>
@@ -19434,7 +19437,7 @@
         <v>90.07</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="16">
+    <row r="9" spans="2:9" ht="15.6">
       <c r="B9" s="6">
         <v>745</v>
       </c>
@@ -19460,7 +19463,7 @@
         <v>91.73</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="16">
+    <row r="10" spans="2:9" ht="15.6">
       <c r="B10" s="6">
         <v>808</v>
       </c>
@@ -19486,7 +19489,7 @@
         <v>87.32</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="16">
+    <row r="11" spans="2:9" ht="15.6">
       <c r="B11" s="6">
         <v>792</v>
       </c>
@@ -19512,7 +19515,7 @@
         <v>89.82</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="16">
+    <row r="12" spans="2:9" ht="15.6">
       <c r="B12" s="6">
         <v>849</v>
       </c>
@@ -19538,7 +19541,7 @@
         <v>89.99</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="16">
+    <row r="13" spans="2:9" ht="15.6">
       <c r="B13" s="6">
         <v>729</v>
       </c>
@@ -19564,7 +19567,7 @@
         <v>91.5</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="16">
+    <row r="14" spans="2:9" ht="15.6">
       <c r="B14" s="6">
         <v>753</v>
       </c>
@@ -19590,7 +19593,7 @@
         <v>93.31</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="16">
+    <row r="15" spans="2:9" ht="15.6">
       <c r="B15" s="6">
         <v>709</v>
       </c>
@@ -19616,7 +19619,7 @@
         <v>90.28</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="16">
+    <row r="16" spans="2:9" ht="15.6">
       <c r="B16" s="10">
         <v>782</v>
       </c>
@@ -19642,7 +19645,7 @@
         <v>91.626400000000004</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="16">
+    <row r="17" spans="2:9" ht="15.6">
       <c r="B17" s="10">
         <v>825</v>
       </c>
@@ -19668,7 +19671,7 @@
         <v>88.166399999999996</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="16">
+    <row r="18" spans="2:9" ht="15.6">
       <c r="B18" s="10">
         <v>760</v>
       </c>
@@ -19694,7 +19697,7 @@
         <v>91.263999999999996</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="16">
+    <row r="19" spans="2:9" ht="15.6">
       <c r="B19" s="10">
         <v>767</v>
       </c>
@@ -19720,7 +19723,7 @@
         <v>92.476399999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="16">
+    <row r="20" spans="2:9" ht="15.6">
       <c r="B20" s="10">
         <v>794</v>
       </c>
@@ -19746,7 +19749,7 @@
         <v>87.826400000000007</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="16">
+    <row r="21" spans="2:9" ht="15.6">
       <c r="B21" s="10">
         <v>749</v>
       </c>
@@ -19772,7 +19775,7 @@
         <v>90.926400000000001</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="16">
+    <row r="22" spans="2:9" ht="15.6">
       <c r="B22" s="10">
         <v>816</v>
       </c>
@@ -19798,7 +19801,7 @@
         <v>87.8964</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="16">
+    <row r="23" spans="2:9" ht="15.6">
       <c r="B23" s="10">
         <v>830</v>
       </c>
@@ -19824,7 +19827,7 @@
         <v>87.0364</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="16">
+    <row r="24" spans="2:9" ht="15.6">
       <c r="B24" s="10">
         <v>756</v>
       </c>
@@ -19850,7 +19853,7 @@
         <v>91.526399999999995</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="16">
+    <row r="25" spans="2:9" ht="15.6">
       <c r="B25" s="10">
         <v>765</v>
       </c>
@@ -19876,7 +19879,7 @@
         <v>91.746399999999994</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="16">
+    <row r="26" spans="2:9" ht="15.6">
       <c r="B26" s="10">
         <v>770</v>
       </c>
@@ -19902,7 +19905,7 @@
         <v>89.156400000000005</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="16">
+    <row r="27" spans="2:9" ht="15.6">
       <c r="B27" s="10">
         <v>773</v>
       </c>
@@ -19928,7 +19931,7 @@
         <v>91.546400000000006</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="16">
+    <row r="28" spans="2:9" ht="15.6">
       <c r="B28" s="10">
         <v>707</v>
       </c>
@@ -19954,7 +19957,7 @@
         <v>91.026399999999995</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="16">
+    <row r="29" spans="2:9" ht="15.6">
       <c r="B29" s="10">
         <v>724</v>
       </c>
@@ -19980,7 +19983,7 @@
         <v>86.686400000000006</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="16">
+    <row r="30" spans="2:9" ht="15.6">
       <c r="B30" s="10">
         <v>795</v>
       </c>
@@ -20006,7 +20009,7 @@
         <v>86.636399999999995</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="16">
+    <row r="31" spans="2:9" ht="15.6">
       <c r="B31" s="10">
         <v>736</v>
       </c>
@@ -20032,7 +20035,7 @@
         <v>91.7864</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="16">
+    <row r="32" spans="2:9" ht="15.6">
       <c r="B32" s="10">
         <v>763</v>
       </c>
@@ -20058,7 +20061,7 @@
         <v>83.726399999999998</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="16">
+    <row r="33" spans="2:9" ht="15.6">
       <c r="B33" s="10">
         <v>780</v>
       </c>
@@ -20084,7 +20087,7 @@
         <v>89.2864</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="16">
+    <row r="34" spans="2:9" ht="15.6">
       <c r="B34" s="10">
         <v>832</v>
       </c>
@@ -20110,7 +20113,7 @@
         <v>86.316400000000002</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="16">
+    <row r="35" spans="2:9" ht="15.6">
       <c r="B35" s="10">
         <v>723</v>
       </c>
@@ -20136,7 +20139,7 @@
         <v>82.356399999999994</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="16">
+    <row r="36" spans="2:9" ht="15.6">
       <c r="B36" s="10">
         <v>783</v>
       </c>
@@ -20162,7 +20165,7 @@
         <v>91.726399999999998</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="16">
+    <row r="37" spans="2:9" ht="15.6">
       <c r="B37" s="10">
         <v>696</v>
       </c>
@@ -20188,7 +20191,7 @@
         <v>90.0364</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="16">
+    <row r="38" spans="2:9" ht="15.6">
       <c r="B38" s="10">
         <v>733</v>
       </c>
@@ -20214,7 +20217,7 @@
         <v>89.976399999999998</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="16">
+    <row r="39" spans="2:9" ht="15.6">
       <c r="B39" s="10">
         <v>822</v>
       </c>
@@ -20240,7 +20243,7 @@
         <v>87.696399999999997</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="16">
+    <row r="40" spans="2:9" ht="15.6">
       <c r="B40" s="10">
         <v>754</v>
       </c>
@@ -20266,7 +20269,7 @@
         <v>91.056399999999996</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="16">
+    <row r="41" spans="2:9" ht="15.6">
       <c r="B41" s="10">
         <v>687</v>
       </c>
@@ -20292,7 +20295,7 @@
         <v>90.096400000000003</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="16">
+    <row r="42" spans="2:9" ht="15.6">
       <c r="B42" s="10">
         <v>758</v>
       </c>
@@ -20318,7 +20321,7 @@
         <v>91.426400000000001</v>
       </c>
     </row>
-    <row r="43" spans="2:9" ht="16">
+    <row r="43" spans="2:9" ht="15.6">
       <c r="B43" s="10">
         <v>766</v>
       </c>
@@ -20344,7 +20347,7 @@
         <v>93.196399999999997</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="16">
+    <row r="44" spans="2:9" ht="15.6">
       <c r="B44" s="10">
         <v>726</v>
       </c>
@@ -20370,7 +20373,7 @@
         <v>77.776399999999995</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="16">
+    <row r="45" spans="2:9" ht="15.6">
       <c r="B45" s="10">
         <v>717</v>
       </c>
@@ -20396,7 +20399,7 @@
         <v>85.0364</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="16">
+    <row r="46" spans="2:9" ht="15.6">
       <c r="B46" s="10">
         <v>701</v>
       </c>
@@ -20422,7 +20425,7 @@
         <v>90.496399999999994</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="16">
+    <row r="47" spans="2:9" ht="15.6">
       <c r="B47" s="10">
         <v>705</v>
       </c>
@@ -20448,7 +20451,7 @@
         <v>94.316400000000002</v>
       </c>
     </row>
-    <row r="48" spans="2:9" ht="16">
+    <row r="48" spans="2:9" ht="15.6">
       <c r="B48" s="10">
         <v>850</v>
       </c>
@@ -20474,7 +20477,7 @@
         <v>88.766400000000004</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="16">
+    <row r="49" spans="2:9" ht="15.6">
       <c r="B49" s="10">
         <v>755</v>
       </c>
@@ -20500,7 +20503,7 @@
         <v>90.636399999999995</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="16">
+    <row r="50" spans="2:9" ht="15.6">
       <c r="B50" s="10">
         <v>803</v>
       </c>
@@ -20526,7 +20529,7 @@
         <v>89.864000000000004</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="16">
+    <row r="51" spans="2:9" ht="15.6">
       <c r="B51" s="10">
         <v>706</v>
       </c>
@@ -20552,7 +20555,7 @@
         <v>92.866399999999999</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="16">
+    <row r="52" spans="2:9" ht="15.6">
       <c r="B52" s="10">
         <v>813</v>
       </c>
@@ -20578,7 +20581,7 @@
         <v>84.696399999999997</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="16">
+    <row r="53" spans="2:9" ht="15.6">
       <c r="B53" s="10">
         <v>741</v>
       </c>
@@ -20604,7 +20607,7 @@
         <v>93.056399999999996</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="16">
+    <row r="54" spans="2:9" ht="15.6">
       <c r="B54" s="10">
         <v>789</v>
       </c>
@@ -20630,7 +20633,7 @@
         <v>88.276399999999995</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="16">
+    <row r="55" spans="2:9" ht="15.6">
       <c r="B55" s="10">
         <v>841</v>
       </c>
@@ -20656,7 +20659,7 @@
         <v>77.886399999999995</v>
       </c>
     </row>
-    <row r="56" spans="2:9" ht="16">
+    <row r="56" spans="2:9" ht="15.6">
       <c r="B56" s="10">
         <v>852</v>
       </c>
@@ -20682,7 +20685,7 @@
         <v>93.463999999999999</v>
       </c>
     </row>
-    <row r="57" spans="2:9" ht="16">
+    <row r="57" spans="2:9" ht="15.6">
       <c r="B57" s="10">
         <v>702</v>
       </c>
@@ -20708,7 +20711,7 @@
         <v>88.956400000000002</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="16">
+    <row r="58" spans="2:9" ht="15.6">
       <c r="B58" s="10">
         <v>735</v>
       </c>
@@ -20734,7 +20737,7 @@
         <v>92.186400000000006</v>
       </c>
     </row>
-    <row r="59" spans="2:9" ht="16">
+    <row r="59" spans="2:9" ht="15.6">
       <c r="B59" s="10">
         <v>375</v>
       </c>
@@ -20760,7 +20763,7 @@
         <v>86.086399999999998</v>
       </c>
     </row>
-    <row r="60" spans="2:9" ht="16">
+    <row r="60" spans="2:9" ht="15.6">
       <c r="B60" s="10">
         <v>689</v>
       </c>
@@ -20786,7 +20789,7 @@
         <v>85.886399999999995</v>
       </c>
     </row>
-    <row r="61" spans="2:9" ht="16">
+    <row r="61" spans="2:9" ht="15.6">
       <c r="B61" s="10">
         <v>714</v>
       </c>
@@ -20812,7 +20815,7 @@
         <v>86.426400000000001</v>
       </c>
     </row>
-    <row r="62" spans="2:9" ht="16">
+    <row r="62" spans="2:9" ht="15.6">
       <c r="B62" s="10">
         <v>839</v>
       </c>
@@ -20838,7 +20841,7 @@
         <v>90.056399999999996</v>
       </c>
     </row>
-    <row r="63" spans="2:9" ht="16">
+    <row r="63" spans="2:9" ht="15.6">
       <c r="B63" s="10">
         <v>693</v>
       </c>
@@ -20864,7 +20867,7 @@
         <v>86.616399999999999</v>
       </c>
     </row>
-    <row r="64" spans="2:9" ht="16">
+    <row r="64" spans="2:9" ht="15.6">
       <c r="B64" s="10">
         <v>711</v>
       </c>
@@ -20890,7 +20893,7 @@
         <v>85.563999999999993</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="16">
+    <row r="65" spans="2:9" ht="15.6">
       <c r="B65" s="10">
         <v>694</v>
       </c>
@@ -20916,7 +20919,7 @@
         <v>88.876400000000004</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="16">
+    <row r="66" spans="2:9" ht="15.6">
       <c r="B66" s="10">
         <v>784</v>
       </c>
@@ -20942,7 +20945,7 @@
         <v>92.236400000000003</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="16">
+    <row r="67" spans="2:9" ht="15.6">
       <c r="B67" s="10">
         <v>820</v>
       </c>
@@ -20968,7 +20971,7 @@
         <v>87.664000000000001</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="16">
+    <row r="68" spans="2:9" ht="15.6">
       <c r="B68" s="10">
         <v>821</v>
       </c>
@@ -20994,7 +20997,7 @@
         <v>83.246399999999994</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="16">
+    <row r="69" spans="2:9" ht="15.6">
       <c r="B69" s="10">
         <v>831</v>
       </c>
@@ -21020,7 +21023,7 @@
         <v>91.263999999999996</v>
       </c>
     </row>
-    <row r="70" spans="2:9" ht="16">
+    <row r="70" spans="2:9" ht="15.6">
       <c r="B70" s="10">
         <v>751</v>
       </c>
@@ -21046,7 +21049,7 @@
         <v>88.916399999999996</v>
       </c>
     </row>
-    <row r="71" spans="2:9" ht="16">
+    <row r="71" spans="2:9" ht="15.6">
       <c r="B71" s="10">
         <v>680</v>
       </c>
@@ -21072,7 +21075,7 @@
         <v>86.656400000000005</v>
       </c>
     </row>
-    <row r="72" spans="2:9" ht="16">
+    <row r="72" spans="2:9" ht="15.6">
       <c r="B72" s="10">
         <v>704</v>
       </c>
@@ -21098,7 +21101,7 @@
         <v>88.766400000000004</v>
       </c>
     </row>
-    <row r="73" spans="2:9" ht="16">
+    <row r="73" spans="2:9" ht="15.6">
       <c r="B73" s="10">
         <v>757</v>
       </c>
@@ -21124,7 +21127,7 @@
         <v>92.364000000000004</v>
       </c>
     </row>
-    <row r="74" spans="2:9" ht="16">
+    <row r="74" spans="2:9" ht="15.6">
       <c r="B74" s="10">
         <v>817</v>
       </c>
@@ -21150,7 +21153,7 @@
         <v>86.846400000000003</v>
       </c>
     </row>
-    <row r="75" spans="2:9" ht="16">
+    <row r="75" spans="2:9" ht="15.6">
       <c r="B75" s="10">
         <v>838</v>
       </c>
@@ -21176,7 +21179,7 @@
         <v>82.364000000000004</v>
       </c>
     </row>
-    <row r="76" spans="2:9" ht="16">
+    <row r="76" spans="2:9" ht="15.6">
       <c r="B76" s="10">
         <v>715</v>
       </c>
@@ -21202,7 +21205,7 @@
         <v>86.236400000000003</v>
       </c>
     </row>
-    <row r="77" spans="2:9" ht="16">
+    <row r="77" spans="2:9" ht="15.6">
       <c r="B77" s="10">
         <v>747</v>
       </c>
@@ -21228,7 +21231,7 @@
         <v>86.436400000000006</v>
       </c>
     </row>
-    <row r="78" spans="2:9" ht="16">
+    <row r="78" spans="2:9" ht="15.6">
       <c r="B78" s="10">
         <v>776</v>
       </c>
@@ -21254,7 +21257,7 @@
         <v>86.816400000000002</v>
       </c>
     </row>
-    <row r="79" spans="2:9" ht="16">
+    <row r="79" spans="2:9" ht="15.6">
       <c r="B79" s="10">
         <v>807</v>
       </c>
@@ -21280,7 +21283,7 @@
         <v>88.886399999999995</v>
       </c>
     </row>
-    <row r="80" spans="2:9" ht="16">
+    <row r="80" spans="2:9" ht="15.6">
       <c r="B80" s="10">
         <v>690</v>
       </c>
@@ -21306,7 +21309,7 @@
         <v>90.016400000000004</v>
       </c>
     </row>
-    <row r="81" spans="2:9" ht="16">
+    <row r="81" spans="2:9" ht="15.6">
       <c r="B81" s="10">
         <v>697</v>
       </c>
@@ -21332,7 +21335,7 @@
         <v>88.196399999999997</v>
       </c>
     </row>
-    <row r="82" spans="2:9" ht="16">
+    <row r="82" spans="2:9" ht="15.6">
       <c r="B82" s="10">
         <v>695</v>
       </c>
@@ -21358,7 +21361,7 @@
         <v>93.856399999999994</v>
       </c>
     </row>
-    <row r="83" spans="2:9" ht="16">
+    <row r="83" spans="2:9" ht="15.6">
       <c r="B83" s="10">
         <v>698</v>
       </c>
@@ -21384,7 +21387,7 @@
         <v>90.8964</v>
       </c>
     </row>
-    <row r="84" spans="2:9" ht="16">
+    <row r="84" spans="2:9" ht="15.6">
       <c r="B84" s="10">
         <v>710</v>
       </c>
@@ -21410,7 +21413,7 @@
         <v>90.416399999999996</v>
       </c>
     </row>
-    <row r="85" spans="2:9" ht="16">
+    <row r="85" spans="2:9" ht="15.6">
       <c r="B85" s="10">
         <v>796</v>
       </c>
@@ -21436,7 +21439,7 @@
         <v>87.596400000000003</v>
       </c>
     </row>
-    <row r="86" spans="2:9" ht="16">
+    <row r="86" spans="2:9" ht="15.6">
       <c r="B86" s="10">
         <v>809</v>
       </c>
@@ -21462,7 +21465,7 @@
         <v>81.876400000000004</v>
       </c>
     </row>
-    <row r="87" spans="2:9" ht="16">
+    <row r="87" spans="2:9" ht="15.6">
       <c r="B87" s="10">
         <v>840</v>
       </c>
@@ -21488,7 +21491,7 @@
         <v>88.916399999999996</v>
       </c>
     </row>
-    <row r="88" spans="2:9" ht="16">
+    <row r="88" spans="2:9" ht="15.6">
       <c r="B88" s="10">
         <v>854</v>
       </c>
@@ -21514,7 +21517,7 @@
         <v>93.276399999999995</v>
       </c>
     </row>
-    <row r="89" spans="2:9" ht="16">
+    <row r="89" spans="2:9" ht="15.6">
       <c r="B89" s="10">
         <v>685</v>
       </c>
@@ -21540,7 +21543,7 @@
         <v>90.086399999999998</v>
       </c>
     </row>
-    <row r="90" spans="2:9" ht="16">
+    <row r="90" spans="2:9" ht="15.6">
       <c r="B90" s="10">
         <v>700</v>
       </c>
@@ -21566,7 +21569,7 @@
         <v>93.326400000000007</v>
       </c>
     </row>
-    <row r="91" spans="2:9" ht="16">
+    <row r="91" spans="2:9" ht="15.6">
       <c r="B91" s="10">
         <v>771</v>
       </c>
@@ -21592,7 +21595,7 @@
         <v>87.656400000000005</v>
       </c>
     </row>
-    <row r="92" spans="2:9" ht="16">
+    <row r="92" spans="2:9" ht="15.6">
       <c r="B92" s="10">
         <v>805</v>
       </c>
@@ -21618,7 +21621,7 @@
         <v>86.496399999999994</v>
       </c>
     </row>
-    <row r="93" spans="2:9" ht="16">
+    <row r="93" spans="2:9" ht="15.6">
       <c r="B93" s="10">
         <v>810</v>
       </c>
@@ -21644,7 +21647,7 @@
         <v>91.5364</v>
       </c>
     </row>
-    <row r="94" spans="2:9" ht="16">
+    <row r="94" spans="2:9" ht="15.6">
       <c r="B94" s="10">
         <v>824</v>
       </c>
@@ -21670,7 +21673,7 @@
         <v>84.563999999999993</v>
       </c>
     </row>
-    <row r="95" spans="2:9" ht="16">
+    <row r="95" spans="2:9" ht="15.6">
       <c r="B95" s="10">
         <v>844</v>
       </c>
@@ -21696,7 +21699,7 @@
         <v>88.664000000000001</v>
       </c>
     </row>
-    <row r="96" spans="2:9" ht="16">
+    <row r="96" spans="2:9" ht="15.6">
       <c r="B96" s="10">
         <v>734</v>
       </c>
@@ -21722,7 +21725,7 @@
         <v>91.1464</v>
       </c>
     </row>
-    <row r="97" spans="2:9" ht="16">
+    <row r="97" spans="2:9" ht="15.6">
       <c r="B97" s="10">
         <v>762</v>
       </c>
@@ -21748,7 +21751,7 @@
         <v>90.866399999999999</v>
       </c>
     </row>
-    <row r="98" spans="2:9" ht="16">
+    <row r="98" spans="2:9" ht="15.6">
       <c r="B98" s="10">
         <v>764</v>
       </c>
@@ -21774,7 +21777,7 @@
         <v>92.216399999999993</v>
       </c>
     </row>
-    <row r="99" spans="2:9" ht="16">
+    <row r="99" spans="2:9" ht="15.6">
       <c r="B99" s="10">
         <v>774</v>
       </c>
@@ -21800,7 +21803,7 @@
         <v>91.456400000000002</v>
       </c>
     </row>
-    <row r="100" spans="2:9" ht="16">
+    <row r="100" spans="2:9" ht="15.6">
       <c r="B100" s="10">
         <v>785</v>
       </c>
@@ -21826,7 +21829,7 @@
         <v>86.963999999999999</v>
       </c>
     </row>
-    <row r="101" spans="2:9" ht="16">
+    <row r="101" spans="2:9" ht="15.6">
       <c r="B101" s="10">
         <v>851</v>
       </c>
@@ -21852,7 +21855,7 @@
         <v>83.746399999999994</v>
       </c>
     </row>
-    <row r="102" spans="2:9" ht="16">
+    <row r="102" spans="2:9" ht="15.6">
       <c r="B102" s="10">
         <v>775</v>
       </c>
@@ -21878,7 +21881,7 @@
         <v>86.664000000000001</v>
       </c>
     </row>
-    <row r="103" spans="2:9" ht="16">
+    <row r="103" spans="2:9" ht="15.6">
       <c r="B103" s="10">
         <v>716</v>
       </c>
@@ -21904,7 +21907,7 @@
         <v>90.936400000000006</v>
       </c>
     </row>
-    <row r="104" spans="2:9" ht="16">
+    <row r="104" spans="2:9" ht="15.6">
       <c r="B104" s="10">
         <v>739</v>
       </c>
@@ -21930,7 +21933,7 @@
         <v>91.316400000000002</v>
       </c>
     </row>
-    <row r="105" spans="2:9" ht="16">
+    <row r="105" spans="2:9" ht="15.6">
       <c r="B105" s="10">
         <v>843</v>
       </c>
@@ -21956,7 +21959,7 @@
         <v>86.886399999999995</v>
       </c>
     </row>
-    <row r="106" spans="2:9" ht="16">
+    <row r="106" spans="2:9" ht="15.6">
       <c r="B106" s="10">
         <v>661</v>
       </c>
@@ -21982,7 +21985,7 @@
         <v>77.686400000000006</v>
       </c>
     </row>
-    <row r="107" spans="2:9" ht="16">
+    <row r="107" spans="2:9" ht="15.6">
       <c r="B107" s="10">
         <v>682</v>
       </c>
@@ -22008,7 +22011,7 @@
         <v>82.376400000000004</v>
       </c>
     </row>
-    <row r="108" spans="2:9" ht="16">
+    <row r="108" spans="2:9" ht="15.6">
       <c r="B108" s="10">
         <v>847</v>
       </c>
@@ -22034,7 +22037,7 @@
         <v>83.816400000000002</v>
       </c>
     </row>
-    <row r="109" spans="2:9" ht="16">
+    <row r="109" spans="2:9" ht="15.6">
       <c r="B109" s="10">
         <v>669</v>
       </c>
@@ -22060,7 +22063,7 @@
         <v>54.363999999999997</v>
       </c>
     </row>
-    <row r="110" spans="2:9" ht="16">
+    <row r="110" spans="2:9" ht="15.6">
       <c r="B110" s="10">
         <v>815</v>
       </c>
@@ -22086,7 +22089,7 @@
         <v>88.0364</v>
       </c>
     </row>
-    <row r="111" spans="2:9" ht="16">
+    <row r="111" spans="2:9" ht="15.6">
       <c r="B111" s="10">
         <v>846</v>
       </c>
@@ -22112,7 +22115,7 @@
         <v>81.2864</v>
       </c>
     </row>
-    <row r="112" spans="2:9" ht="16">
+    <row r="112" spans="2:9" ht="15.6">
       <c r="B112" s="10">
         <v>772</v>
       </c>
@@ -22138,7 +22141,7 @@
         <v>87.726399999999998</v>
       </c>
     </row>
-    <row r="113" spans="2:9" ht="16">
+    <row r="113" spans="2:9" ht="15.6">
       <c r="B113" s="10">
         <v>837</v>
       </c>
@@ -22164,7 +22167,7 @@
         <v>78.3964</v>
       </c>
     </row>
-    <row r="114" spans="2:9" ht="16">
+    <row r="114" spans="2:9" ht="15.6">
       <c r="B114" s="10">
         <v>742</v>
       </c>
@@ -22190,7 +22193,7 @@
         <v>86.666399999999996</v>
       </c>
     </row>
-    <row r="115" spans="2:9" ht="16">
+    <row r="115" spans="2:9" ht="15.6">
       <c r="B115" s="10">
         <v>761</v>
       </c>
@@ -22216,7 +22219,7 @@
         <v>87.566400000000002</v>
       </c>
     </row>
-    <row r="116" spans="2:9" ht="16">
+    <row r="116" spans="2:9" ht="15.6">
       <c r="B116" s="10">
         <v>853</v>
       </c>
@@ -22242,7 +22245,7 @@
         <v>90.263999999999996</v>
       </c>
     </row>
-    <row r="117" spans="2:9" ht="16">
+    <row r="117" spans="2:9" ht="15.6">
       <c r="B117" s="10">
         <v>672</v>
       </c>
@@ -22268,7 +22271,7 @@
         <v>83.316400000000002</v>
       </c>
     </row>
-    <row r="118" spans="2:9" ht="16">
+    <row r="118" spans="2:9" ht="15.6">
       <c r="B118" s="10">
         <v>699</v>
       </c>
@@ -22294,7 +22297,7 @@
         <v>88.416399999999996</v>
       </c>
     </row>
-    <row r="119" spans="2:9" ht="16">
+    <row r="119" spans="2:9" ht="15.6">
       <c r="B119" s="10">
         <v>768</v>
       </c>
@@ -22320,7 +22323,7 @@
         <v>95.596400000000003</v>
       </c>
     </row>
-    <row r="120" spans="2:9" ht="16">
+    <row r="120" spans="2:9" ht="15.6">
       <c r="B120" s="10">
         <v>778</v>
       </c>
@@ -22346,7 +22349,7 @@
         <v>90.6464</v>
       </c>
     </row>
-    <row r="121" spans="2:9" ht="16">
+    <row r="121" spans="2:9" ht="15.6">
       <c r="B121" s="10">
         <v>657</v>
       </c>
@@ -22372,7 +22375,7 @@
         <v>81.3964</v>
       </c>
     </row>
-    <row r="122" spans="2:9" ht="16">
+    <row r="122" spans="2:9" ht="15.6">
       <c r="B122" s="10">
         <v>677</v>
       </c>
@@ -22398,7 +22401,7 @@
         <v>80.063999999999993</v>
       </c>
     </row>
-    <row r="123" spans="2:9" ht="16">
+    <row r="123" spans="2:9" ht="15.6">
       <c r="B123" s="10">
         <v>691</v>
       </c>
@@ -22424,7 +22427,7 @@
         <v>82.196399999999997</v>
       </c>
     </row>
-    <row r="124" spans="2:9" ht="16">
+    <row r="124" spans="2:9" ht="15.6">
       <c r="B124" s="10">
         <v>743</v>
       </c>
@@ -22450,7 +22453,7 @@
         <v>88.456400000000002</v>
       </c>
     </row>
-    <row r="125" spans="2:9" ht="16">
+    <row r="125" spans="2:9" ht="15.6">
       <c r="B125" s="10">
         <v>759</v>
       </c>
@@ -22476,7 +22479,7 @@
         <v>91.656400000000005</v>
       </c>
     </row>
-    <row r="126" spans="2:9" ht="16">
+    <row r="126" spans="2:9" ht="15.6">
       <c r="B126" s="10">
         <v>827</v>
       </c>
@@ -22502,7 +22505,7 @@
         <v>86.026399999999995</v>
       </c>
     </row>
-    <row r="127" spans="2:9" ht="16">
+    <row r="127" spans="2:9" ht="15.6">
       <c r="B127" s="10">
         <v>660</v>
       </c>
@@ -22528,7 +22531,7 @@
         <v>78.476399999999998</v>
       </c>
     </row>
-    <row r="128" spans="2:9" ht="16">
+    <row r="128" spans="2:9" ht="15.6">
       <c r="B128" s="10">
         <v>819</v>
       </c>
@@ -22554,7 +22557,7 @@
         <v>71.766400000000004</v>
       </c>
     </row>
-    <row r="129" spans="2:9" ht="16">
+    <row r="129" spans="2:9" ht="15.6">
       <c r="B129" s="10">
         <v>848</v>
       </c>
@@ -22580,7 +22583,7 @@
         <v>88.576400000000007</v>
       </c>
     </row>
-    <row r="130" spans="2:9" ht="16">
+    <row r="130" spans="2:9" ht="15.6">
       <c r="B130" s="10">
         <v>652</v>
       </c>
@@ -22606,7 +22609,7 @@
         <v>91.946399999999997</v>
       </c>
     </row>
-    <row r="131" spans="2:9" ht="16">
+    <row r="131" spans="2:9" ht="15.6">
       <c r="B131" s="10">
         <v>718</v>
       </c>
@@ -22632,7 +22635,7 @@
         <v>83.7864</v>
       </c>
     </row>
-    <row r="132" spans="2:9" ht="16">
+    <row r="132" spans="2:9" ht="15.6">
       <c r="B132" s="10">
         <v>686</v>
       </c>
@@ -22658,7 +22661,7 @@
         <v>78.096400000000003</v>
       </c>
     </row>
-    <row r="133" spans="2:9" ht="16">
+    <row r="133" spans="2:9" ht="15.6">
       <c r="B133" s="10">
         <v>720</v>
       </c>
@@ -22684,7 +22687,7 @@
         <v>52.856400000000001</v>
       </c>
     </row>
-    <row r="134" spans="2:9" ht="16">
+    <row r="134" spans="2:9" ht="15.6">
       <c r="B134" s="10">
         <v>811</v>
       </c>
@@ -22710,7 +22713,7 @@
         <v>73.563999999999993</v>
       </c>
     </row>
-    <row r="135" spans="2:9" ht="16">
+    <row r="135" spans="2:9" ht="15.6">
       <c r="B135" s="10">
         <v>855</v>
       </c>
@@ -22736,7 +22739,7 @@
         <v>90.296400000000006</v>
       </c>
     </row>
-    <row r="136" spans="2:9" ht="16">
+    <row r="136" spans="2:9" ht="15.6">
       <c r="B136" s="10">
         <v>379</v>
       </c>
@@ -22762,7 +22765,7 @@
         <v>78.076400000000007</v>
       </c>
     </row>
-    <row r="137" spans="2:9" ht="16">
+    <row r="137" spans="2:9" ht="15.6">
       <c r="B137" s="10">
         <v>647</v>
       </c>
@@ -22788,7 +22791,7 @@
         <v>76.136399999999995</v>
       </c>
     </row>
-    <row r="138" spans="2:9" ht="16">
+    <row r="138" spans="2:9" ht="15.6">
       <c r="B138" s="10">
         <v>659</v>
       </c>
@@ -22814,7 +22817,7 @@
         <v>70.156400000000005</v>
       </c>
     </row>
-    <row r="139" spans="2:9" ht="16">
+    <row r="139" spans="2:9" ht="15.6">
       <c r="B139" s="10">
         <v>662</v>
       </c>
@@ -22840,7 +22843,7 @@
         <v>70.216399999999993</v>
       </c>
     </row>
-    <row r="140" spans="2:9" ht="16">
+    <row r="140" spans="2:9" ht="15.6">
       <c r="B140" s="10">
         <v>668</v>
       </c>
@@ -22866,7 +22869,7 @@
         <v>10.4964</v>
       </c>
     </row>
-    <row r="141" spans="2:9" ht="16">
+    <row r="141" spans="2:9" ht="15.6">
       <c r="B141" s="10">
         <v>833</v>
       </c>
@@ -22892,7 +22895,7 @@
         <v>59.736400000000003</v>
       </c>
     </row>
-    <row r="142" spans="2:9" ht="16">
+    <row r="142" spans="2:9" ht="15.6">
       <c r="B142" s="10">
         <v>834</v>
       </c>
@@ -23021,11 +23024,11 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.69921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
@@ -23035,7 +23038,7 @@
     <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="19">
+    <row r="1" spans="1:18" ht="18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -27106,20 +27109,20 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.796875" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" style="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.19921875" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.19921875" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.296875" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.296875" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.296875" style="16" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.83203125" style="16"/>
+    <col min="12" max="16384" width="8.796875" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -32022,13 +32025,13 @@
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
